--- a/Activities score/LIS FIS 2023-Lista de Cotejo SEGUNDA-PRIMERA Entrega.xlsx
+++ b/Activities score/LIS FIS 2023-Lista de Cotejo SEGUNDA-PRIMERA Entrega.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edgar.cambranes/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736D0A60-E469-914C-A099-71A36468177D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D5B2B7F-AB75-4A01-B6F7-E9127F669342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" firstSheet="1" activeTab="1" xr2:uid="{DBDBD91F-58B3-7D45-AEAB-8508DE984923}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{DBDBD91F-58B3-7D45-AEAB-8508DE984923}"/>
   </bookViews>
   <sheets>
     <sheet name="Rúbirca con Evidencias-1ra" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
   <si>
     <r>
       <t xml:space="preserve">Facultad de Matemáticas 
@@ -507,12 +507,48 @@
       <t>Calidad de los argumentos presentados basados en información objetiva.</t>
     </r>
   </si>
+  <si>
+    <t>https://github.com/raul-baul/Proyecto-Block-N/blob/Segunda-Entrega/README.md</t>
+  </si>
+  <si>
+    <t>https://www.figma.com/design/zazNZ62kHCo8MwXXFkVwRE/Figma-real?node-id=16-7518&amp;t=m76mnBaTSrYdK25a-1</t>
+  </si>
+  <si>
+    <t>https://github.com/raul-baul/Proyecto-Block-N/blob/Segunda-Entrega/Artifacts/REQUERIMIENTOS.pdf</t>
+  </si>
+  <si>
+    <t>https://www.figma.com/proto/zazNZ62kHCo8MwXXFkVwRE?node-id=1-1540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raul-baul/Proyecto-Block-N/blob/Segunda-Entrega/Skills/COMPETENCIAS%20GEN%C3%89RICAS.md </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raul-baul/Proyecto-Block-N/blob/Segunda-Entrega/Skills/COMPETENCIAS%20ESPEC%C3%8DFICAS.md </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raul-baul/Proyecto-Block-N/blob/Segunda-Entrega/PRESENTATION/PRESENTACI%C3%93N%20AVANCE%20(2).pdf </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1blF5oknzu2wCq0CrfZD76p4aYlvI6EBe/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raul-baul/Proyecto-Block-N/blob/Segunda-Entrega/Activities%20score/ACTIVIDADES.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raul-baul/Proyecto-Block-N/tree/Segunda-Entrega/Roles%20%26%20Organization </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://alumnosuady-my.sharepoint.com/:x:/g/personal/a20200758_alumnos_uady_mx/Ee4wcIsysN9LixFYhy2mI3IBQKwSABumly3hTnJbcN2n0A?e=ZFpvgl </t>
+  </si>
+  <si>
+    <t>https://alumnosuady-my.sharepoint.com/:x:/g/personal/a20200758_alumnos_uady_mx/Ee4wcIsysN9LixFYhy2mI3IBQKwSABumly3hTnJbcN2n0A?e=ZFpvgl</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -622,6 +658,21 @@
     <font>
       <sz val="12"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -939,10 +990,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1109,8 +1161,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1212,9 +1274,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1252,7 +1314,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1358,7 +1420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1500,7 +1562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1514,17 +1576,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.97265625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="13.0703125" customWidth="1"/>
-    <col min="4" max="4" width="45.99609375" customWidth="1"/>
-    <col min="5" max="5" width="2.46484375" customWidth="1"/>
-    <col min="6" max="6" width="14.671875" customWidth="1"/>
-    <col min="7" max="7" width="1.97265625" customWidth="1"/>
-    <col min="8" max="11" width="10.6015625" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="5" max="5" width="2.5" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="2" customWidth="1"/>
+    <col min="8" max="11" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="16.5" thickBot="1">
       <c r="A2" s="56"/>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
@@ -1585,7 +1647,7 @@
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="16.5" thickBot="1">
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -1681,7 +1743,7 @@
       </c>
       <c r="H14" s="42"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:11" ht="16.5" thickBot="1"/>
     <row r="16" spans="1:11" ht="81.95" customHeight="1" thickBot="1">
       <c r="B16" s="54" t="s">
         <v>27</v>
@@ -1714,7 +1776,7 @@
       </c>
       <c r="H18" s="42"/>
     </row>
-    <row r="19" spans="2:8" ht="36">
+    <row r="19" spans="2:8" ht="38.25">
       <c r="B19" s="54"/>
       <c r="C19" s="7" t="s">
         <v>34</v>
@@ -1724,8 +1786,8 @@
       </c>
       <c r="H19" s="42"/>
     </row>
-    <row r="20" spans="2:8" ht="15.75" thickBot="1"/>
-    <row r="21" spans="2:8" ht="60" thickBot="1">
+    <row r="20" spans="2:8" ht="16.5" thickBot="1"/>
+    <row r="21" spans="2:8" ht="77.25" thickBot="1">
       <c r="B21" s="57" t="s">
         <v>36</v>
       </c>
@@ -1737,7 +1799,7 @@
       </c>
       <c r="H21" s="42"/>
     </row>
-    <row r="22" spans="2:8" ht="24.75">
+    <row r="22" spans="2:8" ht="25.5">
       <c r="B22" s="57"/>
       <c r="C22" s="27" t="s">
         <v>39</v>
@@ -1757,7 +1819,7 @@
       </c>
       <c r="H23" s="42"/>
     </row>
-    <row r="25" spans="2:8" ht="24" thickBot="1">
+    <row r="25" spans="2:8" ht="36.75" thickBot="1">
       <c r="B25" s="54" t="s">
         <v>43</v>
       </c>
@@ -1769,7 +1831,7 @@
       </c>
       <c r="H25" s="42"/>
     </row>
-    <row r="26" spans="2:8" ht="23.25">
+    <row r="26" spans="2:8" ht="36">
       <c r="B26" s="54"/>
       <c r="C26" s="24" t="s">
         <v>46</v>
@@ -1815,21 +1877,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7860AAA-38BF-0546-A7C4-C189623F6894}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.97265625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="13.0703125" customWidth="1"/>
-    <col min="4" max="4" width="45.99609375" customWidth="1"/>
-    <col min="5" max="5" width="2.46484375" customWidth="1"/>
-    <col min="6" max="6" width="14.671875" customWidth="1"/>
-    <col min="7" max="7" width="1.97265625" customWidth="1"/>
-    <col min="8" max="11" width="10.6015625" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="5" max="5" width="2.5" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="2" customWidth="1"/>
+    <col min="8" max="11" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
       <c r="A1" s="55" t="s">
         <v>49</v>
       </c>
@@ -1840,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="16.5" thickBot="1">
       <c r="A2" s="56"/>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
@@ -1890,7 +1952,7 @@
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="16.5" thickBot="1">
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -1918,9 +1980,13 @@
       <c r="D7" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="F7" s="62" t="s">
+        <v>82</v>
+      </c>
       <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:11">
+      <c r="F8" s="61"/>
       <c r="H8" s="43"/>
     </row>
     <row r="9" spans="1:11" ht="68.099999999999994" customHeight="1" thickBot="1">
@@ -1932,6 +1998,9 @@
       </c>
       <c r="D9" s="12" t="s">
         <v>53</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>82</v>
       </c>
       <c r="H9" s="42"/>
     </row>
@@ -1943,9 +2012,15 @@
       <c r="D10" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="F10" s="60" t="s">
+        <v>82</v>
+      </c>
       <c r="H10" s="42"/>
     </row>
-    <row r="12" spans="1:11" ht="36.75" thickBot="1">
+    <row r="11" spans="1:11">
+      <c r="F11" s="61"/>
+    </row>
+    <row r="12" spans="1:11" ht="39" thickBot="1">
       <c r="B12" s="54" t="s">
         <v>56</v>
       </c>
@@ -1955,9 +2030,12 @@
       <c r="D12" s="12" t="s">
         <v>58</v>
       </c>
+      <c r="F12" s="60" t="s">
+        <v>83</v>
+      </c>
       <c r="H12" s="42"/>
     </row>
-    <row r="13" spans="1:11" ht="48">
+    <row r="13" spans="1:11" ht="51">
       <c r="B13" s="54"/>
       <c r="C13" s="15" t="s">
         <v>59</v>
@@ -1965,9 +2043,12 @@
       <c r="D13" s="8" t="s">
         <v>60</v>
       </c>
+      <c r="F13" s="60" t="s">
+        <v>84</v>
+      </c>
       <c r="H13" s="42"/>
     </row>
-    <row r="14" spans="1:11" ht="48">
+    <row r="14" spans="1:11" ht="51">
       <c r="B14" s="14"/>
       <c r="C14" s="51" t="s">
         <v>61</v>
@@ -1975,9 +2056,14 @@
       <c r="D14" s="53" t="s">
         <v>62</v>
       </c>
+      <c r="F14" s="60" t="s">
+        <v>85</v>
+      </c>
       <c r="H14" s="52"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:11" ht="16.5" thickBot="1">
+      <c r="F15" s="61"/>
+    </row>
     <row r="16" spans="1:11" ht="38.1" customHeight="1" thickBot="1">
       <c r="B16" s="54" t="s">
         <v>63</v>
@@ -1987,6 +2073,9 @@
       </c>
       <c r="D16" s="16" t="s">
         <v>64</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>92</v>
       </c>
       <c r="H16" s="42"/>
     </row>
@@ -1998,6 +2087,9 @@
       <c r="D17" s="40" t="s">
         <v>65</v>
       </c>
+      <c r="F17" s="60" t="s">
+        <v>93</v>
+      </c>
       <c r="H17" s="41"/>
     </row>
     <row r="18" spans="2:8" ht="81.95" customHeight="1" thickBot="1">
@@ -2008,9 +2100,12 @@
       <c r="D18" s="17" t="s">
         <v>66</v>
       </c>
+      <c r="F18" s="60" t="s">
+        <v>90</v>
+      </c>
       <c r="H18" s="42"/>
     </row>
-    <row r="19" spans="2:8" ht="48">
+    <row r="19" spans="2:8" ht="51">
       <c r="B19" s="54"/>
       <c r="C19" s="7" t="s">
         <v>34</v>
@@ -2018,10 +2113,15 @@
       <c r="D19" s="28" t="s">
         <v>67</v>
       </c>
+      <c r="F19" s="60" t="s">
+        <v>91</v>
+      </c>
       <c r="H19" s="42"/>
     </row>
-    <row r="20" spans="2:8" ht="15.75" thickBot="1"/>
-    <row r="21" spans="2:8" ht="60" thickBot="1">
+    <row r="20" spans="2:8" ht="16.5" thickBot="1">
+      <c r="F20" s="61"/>
+    </row>
+    <row r="21" spans="2:8" ht="77.25" thickBot="1">
       <c r="B21" s="57" t="s">
         <v>36</v>
       </c>
@@ -2031,15 +2131,21 @@
       <c r="D21" s="18" t="s">
         <v>38</v>
       </c>
+      <c r="F21" s="60" t="s">
+        <v>88</v>
+      </c>
       <c r="H21" s="42"/>
     </row>
-    <row r="22" spans="2:8" ht="24.75">
+    <row r="22" spans="2:8" ht="25.5">
       <c r="B22" s="57"/>
       <c r="C22" s="27" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>40</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>88</v>
       </c>
       <c r="H22" s="41"/>
     </row>
@@ -2051,9 +2157,15 @@
       <c r="D23" s="21" t="s">
         <v>42</v>
       </c>
+      <c r="F23" s="60" t="s">
+        <v>89</v>
+      </c>
       <c r="H23" s="42"/>
     </row>
-    <row r="25" spans="2:8" ht="24" thickBot="1">
+    <row r="24" spans="2:8">
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="2:8" ht="36.75" thickBot="1">
       <c r="B25" s="54" t="s">
         <v>43</v>
       </c>
@@ -2063,15 +2175,21 @@
       <c r="D25" s="23" t="s">
         <v>45</v>
       </c>
+      <c r="F25" s="60" t="s">
+        <v>86</v>
+      </c>
       <c r="H25" s="42"/>
     </row>
-    <row r="26" spans="2:8" ht="23.25">
+    <row r="26" spans="2:8" ht="36">
       <c r="B26" s="54"/>
       <c r="C26" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>47</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>87</v>
       </c>
       <c r="H26" s="41"/>
     </row>
@@ -2102,6 +2220,23 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B12:B13"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{18231FF3-D338-4948-9993-3D704B8BDF4A}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{ACC5713C-F1D6-4CB0-9FCF-C86DED612FF9}"/>
+    <hyperlink ref="F10" r:id="rId3" xr:uid="{79B6A819-A8AE-4C04-995C-9A82D0E8D2DB}"/>
+    <hyperlink ref="F12" r:id="rId4" xr:uid="{13A728E3-C514-40D8-AB8C-94E323E79C7B}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{35C1636A-AC2C-4558-9592-254714ED2F2D}"/>
+    <hyperlink ref="F14" r:id="rId6" xr:uid="{8045E519-E743-47F8-A8F1-D2D6B79843F6}"/>
+    <hyperlink ref="F25" r:id="rId7" xr:uid="{21A18A81-777D-485A-B220-48193B3C7686}"/>
+    <hyperlink ref="F26" r:id="rId8" xr:uid="{51028D66-86F1-477F-B022-CC95E6F219CA}"/>
+    <hyperlink ref="F21" r:id="rId9" xr:uid="{3383883A-697F-4388-8EC8-9F92C3F0A695}"/>
+    <hyperlink ref="F22" r:id="rId10" xr:uid="{8589BF1D-8D82-44A1-B3EA-26ECCDE02BA6}"/>
+    <hyperlink ref="F23" r:id="rId11" xr:uid="{36B85CA6-4884-4F54-8DAB-F00159F2B930}"/>
+    <hyperlink ref="F18" r:id="rId12" xr:uid="{484672E6-FC1D-4A21-B75E-533267580597}"/>
+    <hyperlink ref="F19" r:id="rId13" xr:uid="{E0B399C3-3AE0-449F-B5CD-A459D41586CD}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{A3DE0939-6D15-42D4-99F1-874D79D61093}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{954951FF-7BB9-4AAE-8333-3735AA2802A2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2115,7 +2250,7 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.97265625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" s="50" t="s">
@@ -2142,12 +2277,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1">
+    <row r="8" spans="2:7" ht="16.5" thickBot="1">
       <c r="B8" s="49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1">
+    <row r="9" spans="2:7" ht="16.5" thickBot="1">
       <c r="B9" s="32">
         <v>0</v>
       </c>
@@ -2161,7 +2296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="30.75" thickBot="1">
+    <row r="10" spans="2:7" ht="32.25" thickBot="1">
       <c r="B10" s="34" t="s">
         <v>2</v>
       </c>
@@ -2185,7 +2320,7 @@
       <c r="F13" s="59"/>
       <c r="G13" s="59"/>
     </row>
-    <row r="14" spans="2:7" ht="15.75">
+    <row r="14" spans="2:7">
       <c r="B14" s="58" t="s">
         <v>75</v>
       </c>
@@ -2195,7 +2330,7 @@
       <c r="F14" s="58"/>
       <c r="G14" s="58"/>
     </row>
-    <row r="15" spans="2:7" ht="15.75">
+    <row r="15" spans="2:7">
       <c r="B15" s="58" t="s">
         <v>76</v>
       </c>
@@ -2205,7 +2340,7 @@
       <c r="F15" s="58"/>
       <c r="G15" s="58"/>
     </row>
-    <row r="16" spans="2:7" ht="15.75">
+    <row r="16" spans="2:7">
       <c r="B16" s="58" t="s">
         <v>77</v>
       </c>
@@ -2215,7 +2350,7 @@
       <c r="F16" s="58"/>
       <c r="G16" s="58"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75">
+    <row r="17" spans="2:7">
       <c r="B17" s="58" t="s">
         <v>78</v>
       </c>
@@ -2225,7 +2360,7 @@
       <c r="F17" s="58"/>
       <c r="G17" s="58"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75">
+    <row r="18" spans="2:7">
       <c r="B18" s="58" t="s">
         <v>79</v>
       </c>
@@ -2235,7 +2370,7 @@
       <c r="F18" s="58"/>
       <c r="G18" s="58"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75">
+    <row r="19" spans="2:7">
       <c r="B19" s="58" t="s">
         <v>80</v>
       </c>
@@ -2245,7 +2380,7 @@
       <c r="F19" s="58"/>
       <c r="G19" s="58"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75">
+    <row r="20" spans="2:7">
       <c r="B20" s="58" t="s">
         <v>81</v>
       </c>
@@ -2271,9 +2406,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2415,31 +2553,43 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{758E0C9F-22C5-4206-988A-ED4D0E9DA74C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBEF48E-FC36-4C6E-9A65-4F854EFC868A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BFE91A6-F782-4B1A-AC0B-52715868B243}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BFE91A6-F782-4B1A-AC0B-52715868B243}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="188a5053-cf46-4829-a43d-8f4e43557bfc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBEF48E-FC36-4C6E-9A65-4F854EFC868A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{758E0C9F-22C5-4206-988A-ED4D0E9DA74C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>